--- a/biology/Botanique/Mitrastemonaceae/Mitrastemonaceae.xlsx
+++ b/biology/Botanique/Mitrastemonaceae/Mitrastemonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mitrastemonaceae (les Mitrastémonacées en français) sont une famille de plante à fleurs de l'ordre des Ericales, selon la classification phylogénétique. Ell ne compte qu'un seul genre et deux espèces Mitrastemon yamamotoi et Mitrastemon kanehirai.
 Ce sont des plantes parasites, à feuilles écailleuses, originaires des régions tropicales d'Asie du Sud-Est et de Malaisie.
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Mitrastemon qui vient des mots grecs μίτρα / mitra, « mitre ; bandeau servant de coiffure » et στήμονας  / stemonas, étamine, en référence aux étamines de la plante en forme de capuche.
-Plusieurs variantes orthographiques du nom « Mitrastemon » ont été proposées, dont : Mitrostemma, Mitrostemon, Mitrastema ou Mitrastemma en 1909. Le nom taxonomique finalement retenu fut Mitrastemon (1911)[1].
+Plusieurs variantes orthographiques du nom « Mitrastemon » ont été proposées, dont : Mitrostemma, Mitrostemon, Mitrastema ou Mitrastemma en 1909. Le nom taxonomique finalement retenu fut Mitrastemon (1911).
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[2] incluait le genre Mitrastemon dans la famille des Rafflesiaceae et situait cette famille dans l'ordre des Rafflesiales.
-La classification phylogénétique APG II (2003)[3] considère la position de cette famille incertaine.
-En classification phylogénétique APG III (2009)[4], qui n'a jamais recours à des familles optionnelles, cette famille est reconnue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) incluait le genre Mitrastemon dans la famille des Rafflesiaceae et situait cette famille dans l'ordre des Rafflesiales.
+La classification phylogénétique APG II (2003) considère la position de cette famille incertaine.
+En classification phylogénétique APG III (2009), qui n'a jamais recours à des familles optionnelles, cette famille est reconnue.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon DELTA Angio           (12 nov. 2015)[5] et NCBI  (12 nov. 2015)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon DELTA Angio           (12 nov. 2015) et NCBI  (12 nov. 2015) :
 genre Mitrastemon (en)</t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2015)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2015) :
 genre Mitrastemon
 Mitrastemon kanehirai
 Mitrastemon yamamotoi</t>
